--- a/Results/Final Results/Samples/900Scen/Results_Sample900_05.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7640DB-73D6-47F7-B9B9-E0BDA878604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70E5D1-3F13-40A1-9C72-EA717F36D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +763,8 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H2">
         <v>0.16730999999999999</v>
@@ -807,7 +808,8 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H3">
         <v>0.16730999999999999</v>
@@ -860,7 +862,8 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H4">
         <v>0.16730999999999999</v>
@@ -910,7 +913,8 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H5">
         <v>0.16730999999999999</v>
@@ -960,7 +964,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H6">
         <v>0.16730999999999999</v>
@@ -1010,7 +1015,8 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4.156E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.9902554504801534E-2</v>
       </c>
       <c r="H7">
         <v>0.16730999999999999</v>
@@ -1063,7 +1069,8 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H8">
         <v>0.14102999999999999</v>
@@ -1113,7 +1120,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H9">
         <v>0.14102999999999999</v>
@@ -1157,7 +1165,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H10">
         <v>0.14102999999999999</v>
@@ -1201,7 +1210,8 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H11">
         <v>0.14102999999999999</v>
@@ -1254,7 +1264,8 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H12">
         <v>0.14102999999999999</v>
@@ -1298,7 +1309,8 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.7389999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4274962793317089E-2</v>
       </c>
       <c r="H13">
         <v>0.14102999999999999</v>
@@ -1354,7 +1366,8 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H14">
         <v>0.15986</v>
@@ -1404,7 +1417,8 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H15">
         <v>0.15986</v>
@@ -1454,7 +1468,8 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H16">
         <v>0.15986</v>
@@ -1504,7 +1519,8 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H17">
         <v>0.15986</v>
@@ -1554,7 +1570,8 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H18">
         <v>0.15986</v>
@@ -1604,7 +1621,8 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6.3420000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9638299839148354E-2</v>
       </c>
       <c r="H19">
         <v>0.15986</v>
@@ -1657,7 +1675,8 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H20">
         <v>0.1517</v>
@@ -1707,7 +1726,8 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H21">
         <v>0.1517</v>
@@ -1757,7 +1777,8 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H22">
         <v>0.1517</v>
@@ -1807,7 +1828,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H23">
         <v>0.1517</v>
@@ -1857,7 +1879,8 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H24">
         <v>0.1517</v>
@@ -1907,7 +1930,8 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.4659999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.2746297704740248E-2</v>
       </c>
       <c r="H25">
         <v>0.1517</v>
@@ -1960,7 +1984,8 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H26">
         <v>0.16513</v>
@@ -2010,7 +2035,8 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H27">
         <v>0.16513</v>
@@ -2060,7 +2086,8 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H28">
         <v>0.16513</v>
@@ -2110,7 +2137,8 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H29">
         <v>0.16513</v>
@@ -2160,7 +2188,8 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H30">
         <v>0.16513</v>
@@ -2210,7 +2239,8 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>6.0729999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.7252472101506954E-2</v>
       </c>
       <c r="H31">
         <v>0.16513</v>
@@ -2263,7 +2293,8 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H32">
         <v>0.14964</v>
@@ -2313,7 +2344,8 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H33">
         <v>0.14964</v>
@@ -2363,7 +2395,8 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H34">
         <v>0.14964</v>
@@ -2413,7 +2446,8 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H35">
         <v>0.14964</v>
@@ -2463,7 +2497,8 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H36">
         <v>0.14964</v>
@@ -2513,7 +2548,8 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3.9329999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>3.7842188172540335E-2</v>
       </c>
       <c r="H37">
         <v>0.14964</v>
@@ -2566,7 +2602,8 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H38">
         <v>0.17835999999999999</v>
@@ -2616,7 +2653,8 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H39">
         <v>0.17835999999999999</v>
@@ -2666,7 +2704,8 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H40">
         <v>0.17835999999999999</v>
@@ -2716,7 +2755,8 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H41">
         <v>0.17835999999999999</v>
@@ -2766,7 +2806,8 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H42">
         <v>0.17835999999999999</v>
@@ -2816,7 +2857,8 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>2.546E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.4825113937671485E-2</v>
       </c>
       <c r="H43">
         <v>0.17835999999999999</v>
@@ -2863,7 +2905,8 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H44">
         <v>0.14749999999999999</v>
@@ -2907,7 +2950,8 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H45">
         <v>0.14749999999999999</v>
@@ -2951,7 +2995,8 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H46">
         <v>0.14749999999999999</v>
@@ -2995,7 +3040,8 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H47">
         <v>0.14749999999999999</v>
@@ -3039,7 +3085,8 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H48">
         <v>0.14749999999999999</v>
@@ -3083,7 +3130,8 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>7.8979999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.3195945011276395E-2</v>
       </c>
       <c r="H49">
         <v>0.14749999999999999</v>
@@ -3130,7 +3178,8 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1.91E-3</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>1.9078194057567048E-3</v>
       </c>
       <c r="H50">
         <v>0.21154000000000001</v>
@@ -3174,7 +3223,8 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1.91E-3</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>1.9078194057567048E-3</v>
       </c>
       <c r="H51">
         <v>0.21154000000000001</v>
@@ -3218,7 +3268,8 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1.91E-3</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>1.9078194057567048E-3</v>
       </c>
       <c r="H52">
         <v>0.21154000000000001</v>
@@ -3262,7 +3313,8 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1.91E-3</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>1.9078194057567048E-3</v>
       </c>
       <c r="H53">
         <v>0.21154000000000001</v>
@@ -3306,7 +3358,8 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1.91E-3</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>1.9078194057567048E-3</v>
       </c>
       <c r="H54">
         <v>0.21154000000000001</v>
@@ -3350,6 +3403,7 @@
         <v>1</v>
       </c>
       <c r="G55">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H55">
@@ -3397,7 +3451,8 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H56">
         <v>0.18548999999999999</v>
@@ -3441,7 +3496,8 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H57">
         <v>0.18548999999999999</v>
@@ -3485,7 +3541,8 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H58">
         <v>0.18548999999999999</v>
@@ -3529,7 +3586,8 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H59">
         <v>0.18548999999999999</v>
@@ -3573,7 +3631,8 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H60">
         <v>0.18548999999999999</v>
@@ -3617,7 +3676,8 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>8.6709999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9793968362457834E-2</v>
       </c>
       <c r="H61">
         <v>0.18548999999999999</v>
@@ -3664,7 +3724,8 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H62">
         <v>0.20365</v>
@@ -3708,7 +3769,8 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H63">
         <v>0.20365</v>
@@ -3752,7 +3814,8 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H64">
         <v>0.20365</v>
@@ -3796,7 +3859,8 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H65">
         <v>0.20365</v>
@@ -3840,7 +3904,8 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H66">
         <v>0.20365</v>
@@ -3884,7 +3949,8 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>5.4919999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.2058749261705346E-2</v>
       </c>
       <c r="H67">
         <v>0.20365</v>
@@ -3931,7 +3997,8 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H68">
         <v>0.15146000000000001</v>
@@ -3975,7 +4042,8 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H69">
         <v>0.15146000000000001</v>
@@ -4019,7 +4087,8 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H70">
         <v>0.15146000000000001</v>
@@ -4063,7 +4132,8 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H71">
         <v>0.15146000000000001</v>
@@ -4107,7 +4177,8 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H72">
         <v>0.15146000000000001</v>
@@ -4151,7 +4222,8 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5.2060000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9480068166742358E-2</v>
       </c>
       <c r="H73">
         <v>0.15146000000000001</v>
@@ -4198,7 +4270,8 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H74">
         <v>0.14623</v>
@@ -4242,7 +4315,8 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H75">
         <v>0.14623</v>
@@ -4286,7 +4360,8 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H76">
         <v>0.14623</v>
@@ -4330,7 +4405,8 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H77">
         <v>0.14623</v>
@@ -4374,7 +4450,8 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H78">
         <v>0.14623</v>
@@ -4418,7 +4495,8 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4.6600000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4522740469061899E-2</v>
       </c>
       <c r="H79">
         <v>0.14623</v>
@@ -4465,7 +4543,8 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H80">
         <v>0.14358000000000001</v>
@@ -4509,7 +4588,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H81">
         <v>0.14358000000000001</v>
@@ -4553,7 +4633,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H82">
         <v>0.14358000000000001</v>
@@ -4597,7 +4678,8 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H83">
         <v>0.14358000000000001</v>
@@ -4641,7 +4723,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H84">
         <v>0.14358000000000001</v>
@@ -4685,7 +4768,8 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>2.7099999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.6388414652305285E-2</v>
       </c>
       <c r="H85">
         <v>0.14358000000000001</v>
@@ -4732,7 +4816,8 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H86">
         <v>0.15462999999999999</v>
@@ -4776,7 +4861,8 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H87">
         <v>0.15462999999999999</v>
@@ -4820,7 +4906,8 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H88">
         <v>0.15462999999999999</v>
@@ -4864,7 +4951,8 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H89">
         <v>0.15462999999999999</v>
@@ -4908,7 +4996,8 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H90">
         <v>0.15462999999999999</v>
@@ -4952,7 +5041,8 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>6.5629999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1588879439391488E-2</v>
       </c>
       <c r="H91">
         <v>0.15462999999999999</v>
@@ -4999,7 +5089,8 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>5.2069999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9489380534931668E-2</v>
       </c>
       <c r="H92">
         <v>0.19911999999999999</v>
@@ -5043,6 +5134,7 @@
         <v>1</v>
       </c>
       <c r="G93">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H93">
@@ -5087,6 +5179,7 @@
         <v>1</v>
       </c>
       <c r="G94">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H94">
@@ -5131,7 +5224,8 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>5.2069999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.9489380534931668E-2</v>
       </c>
       <c r="H95">
         <v>0.19911999999999999</v>
@@ -5175,6 +5269,7 @@
         <v>1</v>
       </c>
       <c r="G96">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H96">
@@ -5219,6 +5314,7 @@
         <v>1</v>
       </c>
       <c r="G97">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H97">
@@ -5266,7 +5362,8 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>4.709E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4975413794837854E-2</v>
       </c>
       <c r="H98">
         <v>0.20044000000000001</v>
@@ -5310,7 +5407,8 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>4.709E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4975413794837854E-2</v>
       </c>
       <c r="H99">
         <v>0.20044000000000001</v>
@@ -5354,7 +5452,8 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>5.7750000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.4593626028982739E-2</v>
       </c>
       <c r="H100">
         <v>0.20044000000000001</v>
@@ -5398,7 +5497,8 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>4.709E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4975413794837854E-2</v>
       </c>
       <c r="H101">
         <v>0.20044000000000001</v>
@@ -5442,7 +5542,8 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>4.709E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4975413794837854E-2</v>
       </c>
       <c r="H102">
         <v>0.20044000000000001</v>
@@ -5486,7 +5587,8 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4.709E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.4975413794837854E-2</v>
       </c>
       <c r="H103">
         <v>0.20044000000000001</v>
@@ -5533,7 +5635,8 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>4.7699999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5530022970972174E-2</v>
       </c>
       <c r="H104">
         <v>0.14532</v>
@@ -5577,7 +5680,8 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>4.7699999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5530022970972174E-2</v>
       </c>
       <c r="H105">
         <v>0.14532</v>
@@ -5621,7 +5725,8 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>4.7699999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5530022970972174E-2</v>
       </c>
       <c r="H106">
         <v>0.14532</v>
@@ -5665,7 +5770,8 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>4.7699999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5530022970972174E-2</v>
       </c>
       <c r="H107">
         <v>0.14532</v>
@@ -5709,7 +5815,8 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>4.7699999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5530022970972174E-2</v>
       </c>
       <c r="H108">
         <v>0.14532</v>
@@ -5753,7 +5860,8 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>4.8259999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.6036901873435863E-2</v>
       </c>
       <c r="H109">
         <v>0.14532</v>
@@ -5800,7 +5908,8 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H110">
         <v>0.20477999999999999</v>
@@ -5844,7 +5953,8 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H111">
         <v>0.20477999999999999</v>
@@ -5888,7 +5998,8 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H112">
         <v>0.20477999999999999</v>
@@ -5932,7 +6043,8 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H113">
         <v>0.20477999999999999</v>
@@ -5976,7 +6088,8 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H114">
         <v>0.20477999999999999</v>
@@ -6020,7 +6133,8 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>4.308E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.1301921349666745E-2</v>
       </c>
       <c r="H115">
         <v>0.20477999999999999</v>
@@ -6067,7 +6181,8 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H116">
         <v>0.15345</v>
@@ -6111,7 +6226,8 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H117">
         <v>0.15345</v>
@@ -6155,7 +6271,8 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H118">
         <v>0.15345</v>
@@ -6199,7 +6316,8 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H119">
         <v>0.15345</v>
@@ -6243,7 +6361,8 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H120">
         <v>0.15345</v>
@@ -6287,7 +6406,8 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>5.0889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.8426654494901702E-2</v>
       </c>
       <c r="H121">
         <v>0.15345</v>
